--- a/hello.xlsx
+++ b/hello.xlsx
@@ -529,6 +529,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -435,10 +435,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
